--- a/biology/Médecine/Ministère_de_la_Santé_(Algérie)/Ministère_de_la_Santé_(Algérie).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Algérie)/Ministère_de_la_Santé_(Algérie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Alg%C3%A9rie)</t>
+          <t>Ministère_de_la_Santé_(Algérie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Santé est l'administration algérienne chargée de la mise en œuvre de la politique du gouvernement dans le domaine de la santé publique.
 Le titulaire actuel est Abdelhak Saihi depuis le 8 septembre 2022.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Alg%C3%A9rie)</t>
+          <t>Ministère_de_la_Santé_(Algérie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administration centrale
-Le ministre de la Santé a autorité sur : 
+          <t>Administration centrale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le ministre de la Santé a autorité sur : 
 La Direction générale de la Prévention et de la Promotion de la santé
-La Direction générale de la Pharmacie et des équipements de santé.
-Administration décentralisée
-Les services déconcentrés régionaux relevant du ministère de la Santé sont les 5 Conseils régionaux de la Santé (CRS), les 5 Observatoires régionaux de la Santé (ORS) et les 58 Directions de la Santé et de la Population (une direction par wilaya).
-</t>
+La Direction générale de la Pharmacie et des équipements de santé.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Alg%C3%A9rie)</t>
+          <t>Ministère_de_la_Santé_(Algérie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Organisation et attributions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Administration décentralisée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les services déconcentrés régionaux relevant du ministère de la Santé sont les 5 Conseils régionaux de la Santé (CRS), les 5 Observatoires régionaux de la Santé (ORS) et les 58 Directions de la Santé et de la Population (une direction par wilaya).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ministère_de_la_Santé_(Algérie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(Alg%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des ministres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
